--- a/Classifications/Classifications_Vids123.xlsx
+++ b/Classifications/Classifications_Vids123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowa-my.sharepoint.com/personal/cjskalla_uiowa_edu/Documents/Documents/aerobictextreview/Classifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aha_mp3/SSTP/aerobictextreviewLFS/Classifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1732" documentId="11_F25DC773A252ABDACC1048EAE15952625BDE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{32BB91BA-A9A3-4E61-A577-E6035E1039FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62675F7-1FE0-D647-AB1C-E962C2405218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="5700" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="6300" windowWidth="23140" windowHeight="19660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="body-based helpful" sheetId="1" r:id="rId1"/>
@@ -4302,21 +4302,21 @@
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F143" sqref="F143:F146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>239</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>239</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>239</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>239</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>239</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>239</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>239</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>239</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>239</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>239</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>239</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>239</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>239</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>239</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>239</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>239</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>239</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>239</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>239</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>239</v>
       </c>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>239</v>
       </c>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>239</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>239</v>
       </c>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>239</v>
       </c>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>239</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>239</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>239</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>239</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>272</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>272</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>272</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>272</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>272</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>272</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>272</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>272</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>272</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>272</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>272</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>272</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>272</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>272</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>272</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>272</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>272</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>272</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>272</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>272</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>272</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>272</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>272</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>272</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>272</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>272</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>272</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>272</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>272</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>272</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>272</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>272</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>272</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>272</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>272</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>272</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>272</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>272</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>272</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>272</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>272</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>272</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>272</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>272</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>272</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>272</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>272</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>272</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>272</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>272</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>272</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>272</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>272</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>272</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>272</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>272</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>272</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>272</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>272</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>272</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>272</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>272</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>272</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>272</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>272</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>272</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>272</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>272</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>272</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>272</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>272</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>272</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>272</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>272</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>272</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>272</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>272</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>272</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>272</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>272</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>272</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>272</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>272</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>272</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>272</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>272</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>272</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>272</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>272</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>272</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>802</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>802</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>802</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>802</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>802</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>802</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>802</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>802</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>802</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>802</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>802</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>802</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>802</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>802</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>802</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>802</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>802</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>802</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>802</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>802</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>802</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>802</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>802</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>802</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>802</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>802</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>802</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>802</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>802</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>802</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>802</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>802</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>802</v>
       </c>
@@ -6615,22 +6615,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0CCE6B-0BEB-48C6-9DBE-0B03BCC3E893}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G68" sqref="G68:G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>239</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>239</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>239</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>239</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>239</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>239</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>239</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>239</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>239</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1245</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1245</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>272</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>272</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>272</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>272</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>272</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>272</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>272</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>272</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>272</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>272</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>272</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>272</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>272</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>272</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>272</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>272</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>272</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>272</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>272</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>272</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>272</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>272</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>272</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>272</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>272</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>272</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>272</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>272</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>272</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>272</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>272</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>272</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>272</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>272</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>272</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>272</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>272</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>272</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>272</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>272</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1245</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1245</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>802</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>802</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>802</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>802</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>802</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>802</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>802</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>802</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>802</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>802</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>802</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>802</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>802</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>802</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>802</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>802</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>802</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>802</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>802</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>802</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>802</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>802</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>802</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>802</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>802</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>802</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>802</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>802</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>802</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>802</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>802</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>802</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>802</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>802</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>802</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>802</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>802</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>802</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>802</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>802</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>802</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>802</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>802</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>802</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>802</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>802</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>802</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>802</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>802</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>802</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>802</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>802</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>802</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>802</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>802</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>802</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>802</v>
       </c>
@@ -8187,21 +8187,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C253B67-1483-4793-A187-43AA0BC4321E}">
   <dimension ref="A1:G303"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F212" sqref="F212"/>
+      <selection pane="bottomLeft" activeCell="G143" sqref="G143:G145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>239</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>239</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>239</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>239</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>239</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>239</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>239</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>239</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>239</v>
       </c>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>239</v>
       </c>
@@ -8472,7 +8472,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>239</v>
       </c>
@@ -8486,7 +8486,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>239</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>239</v>
       </c>
@@ -8514,7 +8514,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>239</v>
       </c>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>239</v>
       </c>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>239</v>
       </c>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>239</v>
       </c>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>239</v>
       </c>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>239</v>
       </c>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>239</v>
       </c>
@@ -8612,7 +8612,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>239</v>
       </c>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>239</v>
       </c>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>239</v>
       </c>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>239</v>
       </c>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>239</v>
       </c>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>239</v>
       </c>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>239</v>
       </c>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>239</v>
       </c>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>239</v>
       </c>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>239</v>
       </c>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>272</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>272</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>272</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>272</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>272</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>272</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>272</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>272</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>272</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>272</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>272</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>272</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>272</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>272</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>272</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>272</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>272</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>272</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>272</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>272</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>272</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>272</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>272</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>272</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>272</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>272</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>272</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>272</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>272</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>272</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>272</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>272</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>272</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>272</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>272</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>272</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>272</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>272</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>272</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>272</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>272</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>272</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>272</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>272</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>272</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>272</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>272</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>272</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>272</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>272</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>272</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>272</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>272</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>272</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>272</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>272</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>272</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>272</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>272</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>272</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>272</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>272</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>272</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>272</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>272</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>272</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>272</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>272</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>272</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>272</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>272</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>272</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>272</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>272</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>272</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>272</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>272</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>272</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>272</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>272</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>272</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>272</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>272</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>272</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>272</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>272</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>272</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>272</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>272</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>272</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>272</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>272</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>272</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>272</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>272</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>272</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>272</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>272</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>272</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>272</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>272</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>272</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>272</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>272</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>272</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>272</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>272</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>802</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>802</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>802</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>802</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>802</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>802</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>802</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>802</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>802</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>802</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>802</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>802</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>802</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>802</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>802</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>802</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>802</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>802</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>802</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>802</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>802</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>802</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>802</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>802</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>802</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>802</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>802</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>802</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>802</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>802</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>802</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>802</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>802</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>802</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>802</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>802</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>802</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>802</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>802</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>802</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>802</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>802</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>802</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>802</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>802</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>802</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>802</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>802</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>802</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>802</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>802</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>802</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>802</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>802</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>802</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>802</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>802</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>802</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>802</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>802</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>802</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>802</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>802</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>802</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>802</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>802</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>802</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>802</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>802</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>802</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>802</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>802</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>802</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>802</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>802</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>802</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>802</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>802</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>802</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>802</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>802</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>802</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>802</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>802</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>802</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>802</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>802</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>802</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>802</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>802</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>802</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>802</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>802</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>802</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>802</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>802</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>802</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>802</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>802</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>802</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>802</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>802</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>802</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>802</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>802</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>802</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>802</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>802</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>802</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>802</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>802</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>802</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>802</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>802</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>802</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>802</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>802</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>802</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>802</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>802</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>802</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>802</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>802</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>802</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>802</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>802</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>802</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>802</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>802</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>802</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>802</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>802</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>802</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>802</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>802</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>802</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>802</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>802</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>802</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>802</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>802</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>802</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>802</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>802</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>802</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>802</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>802</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>802</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>802</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>802</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>802</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>802</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>802</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>802</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>802</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>802</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>802</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>802</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>802</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>802</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>802</v>
       </c>
